--- a/files/template_files/Template.xlsx
+++ b/files/template_files/Template.xlsx
@@ -1,19 +1,19 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\szymon.wujec\OneDrive - JLL\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wujec\Desktop\Szymek\CodeProjects\diploma\files\template_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{52CE3700-3BE0-4E11-A418-73864E52D702}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AA031D-B989-4AB6-8069-63EBF553B55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Data" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -147,7 +147,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -163,9 +163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Pakiet Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,7 +203,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Pakiet Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -309,7 +309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Pakiet Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -465,13 +465,13 @@
       <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="13.44140625" customWidth="1"/>
-    <col min="9" max="15" width="14.77734375" customWidth="1"/>
+    <col min="1" max="7" width="13.42578125" customWidth="1"/>
+    <col min="9" max="15" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,7 +515,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>

--- a/files/template_files/Template.xlsx
+++ b/files/template_files/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wujec\Desktop\Szymek\CodeProjects\diploma\files\template_files\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Project\diploma\files\template_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{15AA031D-B989-4AB6-8069-63EBF553B55C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2982C5C2-312D-4631-8305-7EC53AA5F9BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
+    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -147,7 +147,7 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normalny" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -163,9 +163,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Motyw pakietu Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Pakiet Office">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -203,7 +203,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Pakiet Office">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -309,7 +309,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Pakiet Office">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -461,17 +461,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74ABE2E-3691-468C-8DB9-0058A59BA4F5}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="7" width="13.42578125" customWidth="1"/>
-    <col min="9" max="15" width="14.7109375" customWidth="1"/>
+    <col min="1" max="7" width="13.44140625" customWidth="1"/>
+    <col min="9" max="15" width="14.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,12 +515,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
+      </c>
+      <c r="G2">
+        <v>5213720347</v>
       </c>
       <c r="I2" t="s">
         <v>7</v>

--- a/files/template_files/Template.xlsx
+++ b/files/template_files/Template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Project\diploma\files\template_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2982C5C2-312D-4631-8305-7EC53AA5F9BA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B936FF4F-1B9D-4B82-B752-88576708D929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1884" yWindow="1884" windowWidth="17280" windowHeight="8964" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
+    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11325" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
   <si>
     <t>Name</t>
   </si>
@@ -461,17 +461,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74ABE2E-3691-468C-8DB9-0058A59BA4F5}">
   <dimension ref="A1:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="13.44140625" customWidth="1"/>
-    <col min="9" max="15" width="14.6640625" customWidth="1"/>
+    <col min="1" max="7" width="13.42578125" customWidth="1"/>
+    <col min="9" max="15" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -515,12 +515,15 @@
         <v>14</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>7</v>
       </c>
       <c r="C2" t="s">
         <v>15</v>
+      </c>
+      <c r="D2" t="s">
+        <v>17</v>
       </c>
       <c r="G2">
         <v>5213720347</v>

--- a/files/template_files/Template.xlsx
+++ b/files/template_files/Template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23801"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\DEV\Project\diploma\files\template_files\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B936FF4F-1B9D-4B82-B752-88576708D929}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5417DF2B-3B89-4A37-9A19-A3C397CD21B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2205" yWindow="2205" windowWidth="21600" windowHeight="11325" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
+    <workbookView xWindow="22932" yWindow="-72" windowWidth="23256" windowHeight="12576" xr2:uid="{ACAB484B-C04D-4D6C-B7DD-AB387DF186D1}"/>
   </bookViews>
   <sheets>
     <sheet name="Data" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>Name</t>
   </si>
@@ -45,49 +45,19 @@
     <t>Zip-code</t>
   </si>
   <si>
-    <t>Lat</t>
-  </si>
-  <si>
-    <t>Long Lat</t>
-  </si>
-  <si>
-    <t>NIP</t>
-  </si>
-  <si>
     <t>City</t>
   </si>
   <si>
     <t>Warsaw Spire</t>
   </si>
   <si>
-    <t>SName</t>
-  </si>
-  <si>
-    <t>SAddress</t>
-  </si>
-  <si>
-    <t>SCity</t>
-  </si>
-  <si>
-    <t>SZip-code</t>
-  </si>
-  <si>
-    <t>SLat</t>
-  </si>
-  <si>
-    <t>SLong Lat</t>
-  </si>
-  <si>
-    <t>SNIP</t>
+    <t>Plac Europejski 1</t>
   </si>
   <si>
     <t>Warsaw</t>
   </si>
   <si>
-    <t>plac Europejski 1</t>
-  </si>
-  <si>
-    <t>00-844</t>
+    <t>00-839</t>
   </si>
 </sst>
 </file>
@@ -141,10 +111,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -459,19 +430,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E74ABE2E-3691-468C-8DB9-0058A59BA4F5}">
-  <dimension ref="A1:O2"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="7" width="13.42578125" customWidth="1"/>
-    <col min="9" max="15" width="14.7109375" customWidth="1"/>
+    <col min="1" max="4" width="13.42578125" customWidth="1"/>
+    <col min="6" max="9" width="14.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -479,76 +450,39 @@
         <v>1</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="E1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
+      <c r="H1" s="2"/>
+      <c r="I1" s="2"/>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="B2" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="I1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="2" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="2" t="s">
-        <v>10</v>
-      </c>
-      <c r="L1" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="M1" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="2" t="s">
-        <v>14</v>
+      <c r="C2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="D2" t="s">
+        <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>7</v>
-      </c>
-      <c r="C2" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" t="s">
-        <v>17</v>
-      </c>
-      <c r="G2">
-        <v>5213720347</v>
-      </c>
-      <c r="I2" t="s">
-        <v>7</v>
-      </c>
-      <c r="J2" t="s">
-        <v>16</v>
-      </c>
-      <c r="K2" t="s">
-        <v>15</v>
-      </c>
-      <c r="L2" t="s">
-        <v>17</v>
-      </c>
-      <c r="M2">
-        <v>52.232218953709797</v>
-      </c>
-      <c r="N2">
-        <v>20.984140652289799</v>
-      </c>
-      <c r="O2">
-        <v>5213720347</v>
-      </c>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="3"/>
+      <c r="B3" s="3"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4" s="3"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
